--- a/Total orders,purchases & revenue.xlsx
+++ b/Total orders,purchases & revenue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waith\OneDrive\Documents\GitHub\Restaurant-db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906102C6-4250-4B4E-9459-58FD8E93E17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502DC73A-B2BA-49DD-A583-E3C77710EA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -81,7 +81,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
